--- a/Maturity Assessment VMMM.xlsx
+++ b/Maturity Assessment VMMM.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <fileSharing readOnlyRecommended="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ristoj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22616F97-F80F-FD41-B774-4E27E314872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764787DD-27AD-4345-9780-A01461227D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="2340" windowWidth="33100" windowHeight="20580" xr2:uid="{A8BD3F03-2723-9F4D-9FE2-CE71A9E80D93}"/>
+    <workbookView xWindow="5160" yWindow="780" windowWidth="33100" windowHeight="20580" xr2:uid="{A8BD3F03-2723-9F4D-9FE2-CE71A9E80D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Maturity Level" sheetId="3" r:id="rId1"/>
     <sheet name="VMMM questions" sheetId="1" r:id="rId2"/>
     <sheet name="Pull down values" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +25,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,14 +37,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="176">
+  <si>
+    <t>Vulnerability Management Focus Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maturity Level </t>
+  </si>
+  <si>
+    <t>Policies and Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextual information </t>
+  </si>
+  <si>
+    <t>Automated identification</t>
+  </si>
+  <si>
+    <t>Manual identification</t>
+  </si>
+  <si>
+    <t>External Identification</t>
+  </si>
+  <si>
+    <t>Prioritization</t>
+  </si>
+  <si>
+    <t>Root Cause Analysis</t>
+  </si>
+  <si>
+    <t>Metrics and Reporting</t>
+  </si>
+  <si>
+    <t>Alerting</t>
+  </si>
+  <si>
+    <t>Change Management</t>
+  </si>
+  <si>
+    <t>Patch Management</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS:</t>
+  </si>
+  <si>
+    <t>Go to the VMMM questions tab, and answer the questions there to the best of your ability</t>
+  </si>
+  <si>
+    <t>This tab will automatically update based on those questions</t>
+  </si>
+  <si>
+    <t>Special thank you to Fletus Poston III and Deborah Barnes for helping provide some of the questions</t>
+  </si>
+  <si>
+    <t>© Jonathan Risto, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All rights reserved. Not to be reproduced or used for commercial purposes without permission. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitted to be used by an individual for evaluating their own organization. </t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Has the organization established policies and standards in response to negative security events or incidents?</t>
+  </si>
   <si>
     <t>Are policies and standards based on recognized frameworks?</t>
   </si>
   <si>
-    <t>Has the organization established policies and standards in response to negative security events or incidents?</t>
-  </si>
-  <si>
     <t>Are employees made aware of security policies and standards through formal training and awareness programs?</t>
   </si>
   <si>
@@ -74,9 +138,6 @@
     <t>Are policy and standard updates and training requirements informed by feedback from the automated controls?</t>
   </si>
   <si>
-    <t>Policies and Standards</t>
-  </si>
-  <si>
     <t>Is there a central repository for contextual data related to systems and applications?</t>
   </si>
   <si>
@@ -194,9 +255,6 @@
     <t>Are there ongoing efforts to improve manual testing or review processes based on feedback and lessons learned?</t>
   </si>
   <si>
-    <t>External Identification</t>
-  </si>
-  <si>
     <t>Is there a basic vulnerability disclosure policy (VDP) in place?</t>
   </si>
   <si>
@@ -239,9 +297,6 @@
     <t>Is there an established feedback loop for incorporating findings from external testing and research into the organization's overall security posture?</t>
   </si>
   <si>
-    <t>Prioritization</t>
-  </si>
-  <si>
     <t>Are other factors besides CVSS score or severity rating considered when prioritizing vulnerabilities, such as the existence of known exploits or malware?</t>
   </si>
   <si>
@@ -266,9 +321,6 @@
     <t>Is human analysis or more extensive customization required to use this information for prioritization?</t>
   </si>
   <si>
-    <t>Root Cause Analysis</t>
-  </si>
-  <si>
     <t>Have you customized the data to apply less granular or more meaningful groupings of data than CVE, CWE, or Top 10 identifiers to facilitate root cause analysis?</t>
   </si>
   <si>
@@ -305,9 +357,6 @@
     <t>Does creating a meaningful executive dashboard require more detailed analysis and customization?</t>
   </si>
   <si>
-    <t>Metrics and Reporting</t>
-  </si>
-  <si>
     <t>Have you created filtered reports to target specific groups or prioritize findings?</t>
   </si>
   <si>
@@ -356,9 +405,6 @@
     <t>Is exclusion tracking performed to identify issues and areas of improvement in the security posture of your organization?</t>
   </si>
   <si>
-    <t>Alerting</t>
-  </si>
-  <si>
     <t>Are integrations in place to send alerts to specific divisions or departments?</t>
   </si>
   <si>
@@ -395,9 +441,6 @@
     <t>Are stakeholders regularly informed of improvements to the alerting and response process?</t>
   </si>
   <si>
-    <t>Change Management</t>
-  </si>
-  <si>
     <t>Are some changes related to VM activities given a custom workflow or treated as standard changes?</t>
   </si>
   <si>
@@ -431,9 +474,6 @@
     <t>Are changes related to VM activities integrated into the organization's overall change management process?</t>
   </si>
   <si>
-    <t>Patch Management</t>
-  </si>
-  <si>
     <t>Is there a defined standard schedule for patch testing and deployment?</t>
   </si>
   <si>
@@ -497,76 +537,34 @@
     <t>Options</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contextual information </t>
-  </si>
-  <si>
-    <t>Automated identification</t>
-  </si>
-  <si>
-    <t>Manual identification</t>
-  </si>
-  <si>
-    <t>Vulnerability Management Focus Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maturity Level </t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 2</t>
-  </si>
-  <si>
-    <t>Level 3</t>
-  </si>
-  <si>
-    <t>Level 5</t>
-  </si>
-  <si>
-    <t>Level 4</t>
-  </si>
-  <si>
-    <t>INSTRUCTIONS:</t>
-  </si>
-  <si>
-    <t>Go to the VMMM questions tab, and answer the questions there to the best of your ability</t>
-  </si>
-  <si>
-    <t>This tab will automatically update based on those questions</t>
-  </si>
-  <si>
-    <t>Special thank you to Fletus Poston III and Deborah Barnes for helping provide some of the questions</t>
-  </si>
-  <si>
-    <t>© Jonathan Risto, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All rights reserved. Not to be reproduced or used for commercial purposes without permission. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitted to be used by an individual for evaluating their own organization. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document set as read-only, so you will need to save it as a new name once completed. </t>
+    <t>Configuration Management</t>
   </si>
   <si>
     <t>Contextual Information</t>
   </si>
   <si>
-    <t>Configuration Management</t>
+    <t>Level 1 - Initial</t>
+  </si>
+  <si>
+    <t>Level 2 - Managed</t>
+  </si>
+  <si>
+    <t>Level 3 - Defined</t>
+  </si>
+  <si>
+    <t>Level 5 - Optimized</t>
+  </si>
+  <si>
+    <t>Level 4 - Quantitively Managed</t>
   </si>
 </sst>
 </file>
@@ -1072,13 +1070,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D64A92-CB24-8346-8CE4-B27D7EACC050}">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="11" customWidth="1"/>
-    <col min="4" max="7" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
@@ -1086,10 +1089,10 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -1099,24 +1102,24 @@
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -1188,7 +1191,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -1236,7 +1239,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C12" s="16">
         <v>1</v>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
@@ -1404,42 +1407,37 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA35A465-1318-F645-901D-1F432B1ECEDB}">
   <dimension ref="A3:H157"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1499,11 +1499,11 @@
   <sheetData>
     <row r="3" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="10" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" ref="C4:C67" si="0">IF(D4="","Select Option….")</f>
@@ -1538,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1613,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1688,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1731,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="16" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1781,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1813,7 +1813,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1840,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1856,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1899,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1931,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1958,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1974,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="29" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2024,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2040,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2056,7 +2056,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2083,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2115,7 +2115,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2158,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2201,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2217,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2233,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="43" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2283,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C45" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2299,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2315,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C48" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2358,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2374,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C50" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2401,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C51" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2417,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C52" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2460,7 +2460,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2476,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C55" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="56" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C57" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C58" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2542,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C59" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C60" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2585,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C61" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2601,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C62" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2617,7 +2617,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C63" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2633,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C64" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2660,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C65" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2676,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C66" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2692,7 +2692,7 @@
         <v>11</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C67" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2719,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C68" s="7" t="str">
         <f t="shared" ref="C68:C70" si="6">IF(D68="","Select Option….")</f>
@@ -2735,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C69" s="7" t="str">
         <f t="shared" si="6"/>
@@ -2751,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C70" s="7" t="str">
         <f t="shared" si="6"/>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="71" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2774,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C72" s="6" t="str">
         <f t="shared" ref="C72:C79" si="7">IF(D72="","Select Option….")</f>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C73" s="6" t="str">
         <f t="shared" si="7"/>
@@ -2817,7 +2817,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C74" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2844,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C75" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2860,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C76" s="6" t="str">
         <f t="shared" si="7"/>
@@ -2887,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C77" s="6" t="str">
         <f t="shared" si="7"/>
@@ -2903,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C78" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2930,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C79" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="80" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C81" s="6" t="str">
         <f t="shared" ref="C81:C92" si="9">IF(D81="","Select Option….")</f>
@@ -2980,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C82" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2996,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C83" s="6" t="str">
         <f t="shared" si="9"/>
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C84" s="7" t="str">
         <f t="shared" si="9"/>
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C85" s="7" t="str">
         <f t="shared" si="9"/>
@@ -3055,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C86" s="7" t="str">
         <f t="shared" si="9"/>
@@ -3071,7 +3071,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C87" s="6" t="str">
         <f t="shared" si="9"/>
@@ -3098,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C88" s="6" t="str">
         <f t="shared" si="9"/>
@@ -3114,7 +3114,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C89" s="6" t="str">
         <f t="shared" si="9"/>
@@ -3130,7 +3130,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C90" s="7" t="str">
         <f t="shared" si="9"/>
@@ -3157,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C91" s="7" t="str">
         <f t="shared" si="9"/>
@@ -3173,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C92" s="7" t="str">
         <f t="shared" si="9"/>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="93" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C94" s="6" t="str">
         <f t="shared" ref="C94:C109" si="11">IF(D94="","Select Option….")</f>
@@ -3223,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C95" s="6" t="str">
         <f t="shared" si="11"/>
@@ -3239,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C96" s="6" t="str">
         <f t="shared" si="11"/>
@@ -3255,7 +3255,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C97" s="6" t="str">
         <f t="shared" si="11"/>
@@ -3271,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C98" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3298,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C99" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3314,7 +3314,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C100" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3330,7 +3330,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C101" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3346,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C102" s="6" t="str">
         <f t="shared" si="11"/>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C103" s="6" t="str">
         <f t="shared" si="11"/>
@@ -3389,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C104" s="6" t="str">
         <f t="shared" si="11"/>
@@ -3405,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C105" s="6" t="str">
         <f t="shared" si="11"/>
@@ -3421,7 +3421,7 @@
         <v>13</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C106" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3448,7 +3448,7 @@
         <v>14</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C107" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3464,7 +3464,7 @@
         <v>15</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C108" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3480,7 +3480,7 @@
         <v>16</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C109" s="7" t="str">
         <f t="shared" si="11"/>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="110" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C111" s="6" t="str">
         <f t="shared" ref="C111:C122" si="13">IF(D111="","Select Option….")</f>
@@ -3530,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C112" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3546,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C113" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3562,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C114" s="7" t="str">
         <f t="shared" si="13"/>
@@ -3589,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C115" s="7" t="str">
         <f t="shared" si="13"/>
@@ -3605,7 +3605,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C116" s="7" t="str">
         <f t="shared" si="13"/>
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C117" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3648,7 +3648,7 @@
         <v>8</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C118" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3664,7 +3664,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C119" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3680,7 +3680,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C120" s="7" t="str">
         <f t="shared" si="13"/>
@@ -3707,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C121" s="7" t="str">
         <f t="shared" si="13"/>
@@ -3723,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C122" s="7" t="str">
         <f t="shared" si="13"/>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="123" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C124" s="6" t="str">
         <f t="shared" ref="C124:C135" si="15">IF(D124="","Select Option….")</f>
@@ -3773,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C125" s="6" t="str">
         <f t="shared" si="15"/>
@@ -3789,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C126" s="6" t="str">
         <f t="shared" si="15"/>
@@ -3805,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C127" s="7" t="str">
         <f t="shared" si="15"/>
@@ -3832,7 +3832,7 @@
         <v>5</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C128" s="7" t="str">
         <f t="shared" si="15"/>
@@ -3848,7 +3848,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C129" s="7" t="str">
         <f t="shared" si="15"/>
@@ -3864,7 +3864,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C130" s="6" t="str">
         <f t="shared" si="15"/>
@@ -3887,7 +3887,7 @@
         <v>8</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C131" s="6" t="str">
         <f t="shared" si="15"/>
@@ -3903,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C132" s="6" t="str">
         <f t="shared" si="15"/>
@@ -3919,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C133" s="7" t="str">
         <f t="shared" si="15"/>
@@ -3946,7 +3946,7 @@
         <v>11</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C134" s="7" t="str">
         <f t="shared" si="15"/>
@@ -3962,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C135" s="7" t="str">
         <f t="shared" si="15"/>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="136" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C137" s="6" t="str">
         <f t="shared" ref="C137:C148" si="17">IF(D137="","Select Option….")</f>
@@ -4012,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C138" s="6" t="str">
         <f t="shared" si="17"/>
@@ -4028,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C139" s="6" t="str">
         <f t="shared" si="17"/>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C140" s="7" t="str">
         <f t="shared" si="17"/>
@@ -4071,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C141" s="7" t="str">
         <f t="shared" si="17"/>
@@ -4087,7 +4087,7 @@
         <v>6</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C142" s="7" t="str">
         <f t="shared" si="17"/>
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C143" s="6" t="str">
         <f t="shared" si="17"/>
@@ -4130,7 +4130,7 @@
         <v>8</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C144" s="6" t="str">
         <f t="shared" si="17"/>
@@ -4146,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C145" s="6" t="str">
         <f t="shared" si="17"/>
@@ -4162,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C146" s="7" t="str">
         <f t="shared" si="17"/>
@@ -4189,7 +4189,7 @@
         <v>11</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C147" s="7" t="str">
         <f t="shared" si="17"/>
@@ -4205,7 +4205,7 @@
         <v>12</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C148" s="7" t="str">
         <f t="shared" si="17"/>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="149" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C150" s="6" t="str">
         <f t="shared" ref="C150:C157" si="19">IF(D150="","Select Option….")</f>
@@ -4255,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C151" s="6" t="str">
         <f t="shared" si="19"/>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C152" s="7" t="str">
         <f t="shared" si="19"/>
@@ -4298,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C153" s="7" t="str">
         <f t="shared" si="19"/>
@@ -4314,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C154" s="6" t="str">
         <f t="shared" si="19"/>
@@ -4341,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C155" s="6" t="str">
         <f t="shared" si="19"/>
@@ -4357,7 +4357,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C156" s="7" t="str">
         <f t="shared" si="19"/>
@@ -4384,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C157" s="7" t="str">
         <f t="shared" si="19"/>
@@ -4428,7 +4428,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.3">
@@ -4436,17 +4436,17 @@
     </row>
     <row r="3" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
